--- a/public/Report/Report_2023_05_04_22h18m34s.xlsx
+++ b/public/Report/Report_2023_05_04_22h18m34s.xlsx
@@ -1,12 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2FB0B-3779-4886-949C-E0A5BB244D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Báo cáo sản xuất" state="visible" r:id="rId4"/>
+    <sheet name="Báo cáo sản xuất" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -130,18 +147,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -150,13 +168,18 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,7 +191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="f2ff00"/>
+        <fgColor rgb="FFF2FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,26 +204,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,17 +239,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -257,7 +289,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -610,12 +642,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFC0000"/>
+    <tabColor rgb="FFFC0000"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
-  <sheetFormatPr defaultRowHeight="20" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" customHeight="1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -623,347 +660,358 @@
     <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H7" s="3" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <f>1</f>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <f>2</f>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <f>3</f>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>7</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <f>4</f>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <f>5</f>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <f>6</f>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <f>7</f>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>10</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <f>8</f>
-      </c>
-      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>11</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <f>9</f>
-      </c>
-      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>11</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <f>10</f>
-      </c>
-      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>11</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7">
-        <f>= CONCAT( "Nhập : ",COUNTIF(G9:G18,"Nhập"), " | Xuất : ", COUNTIF(G9:G18,"Xuất"))</f>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="8" t="s">
+      <c r="B19" s="11" t="str">
+        <f>_xlfn.SINGLE( _xlfn.CONCAT( "Nhập : ",COUNTIF(G9:G18,"Nhập"), " | Xuất : ", COUNTIF(G9:G18,"Xuất")))</f>
+        <v>Nhập : 8 | Xuất : 2</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -973,7 +1021,7 @@
     <mergeCell ref="B19:H19"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>